--- a/biology/Zoologie/Anaea/Anaea.xlsx
+++ b/biology/Zoologie/Anaea/Anaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anaea regroupe des lépidoptères (papillons) appartenant à la famille des Nymphalidae et à la sous-famille des Charaxinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Anaea a été décrit par Jakob Hübner en 1819[1].
-L'espèce type est Papilio troglodyta (Fabricius).
-Synonymie
-Pyrrhanaea (Röber, 1888)[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Anaea a été décrit par Jakob Hübner en 1819.
+L'espèce type est Papilio troglodyta (Fabricius).</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce genre est présent uniquement en Amérique.
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pyrrhanaea (Röber, 1888)</t>
         </is>
       </c>
     </row>
@@ -572,13 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste des espèces et sous-espèces</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Anaea archidona, anciennement Coenophlebia archidona (Hewitson, [1860]) présent sur la côte Pacifique de l'Amérique du Sud.
-Anaea troglodyta (Fabricius, 1775) présent dans le sud de l'Amérique du Nord dont plusieurs des sous-espèces sont traitées comme si elles étaient des espèces à part entière.</t>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est présent uniquement en Amérique.
+</t>
         </is>
       </c>
     </row>
@@ -603,71 +622,106 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anaea archidona, anciennement Coenophlebia archidona (Hewitson, ) présent sur la côte Pacifique de l'Amérique du Sud.
+Anaea troglodyta (Fabricius, 1775) présent dans le sud de l'Amérique du Nord dont plusieurs des sous-espèces sont traitées comme si elles étaient des espèces à part entière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anaea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Autres Charaxinae ayant été nommés Anaea</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Consul electra (Westwood, 1850); synonyme Anaea electra
 Consul excellens (Bates, 1864); synonyme Anaea excellens
-Consul fabius (Cramer, [1775]); synonyme Anaea fabius
+Consul fabius (Cramer, ); synonyme Anaea fabius
 Consul panariste (Hewitson, 1856); synonyme Anaea panariste
-Fountainea glycerium (Doubleday, [1849]); synonyme Anaea glycerium ; Godman &amp; Salvin, [1884],
-Fountainea halice (Godart, [1824]); synonyme Anaea halice
-Fountainea nessus (Latreille, [1813]); synonyme Anaea nessus floridus Röber, 1926;
-Fountainea nobilis (Bates, 1864); synonyme Anaea nobilis ; Godman et Salvin, [1884],
-Fountainea ryphea (Cramer, [1775]); synonyme Anaea ryphea ; Godman et Salvin, [1884],
+Fountainea glycerium (Doubleday, ); synonyme Anaea glycerium ; Godman &amp; Salvin, ,
+Fountainea halice (Godart, ); synonyme Anaea halice
+Fountainea nessus (Latreille, ); synonyme Anaea nessus floridus Röber, 1926;
+Fountainea nobilis (Bates, 1864); synonyme Anaea nobilis ; Godman et Salvin, ,
+Fountainea ryphea (Cramer, ); synonyme Anaea ryphea ; Godman et Salvin, ,
 Fountainea sosippus (Hopffer, 1874); synonyme Anaea strymon Weymer, 1890;et Anaea sosippus
-Hypna clytemnestra (Cramer, [1777]), synonyme Anaea clytemnestra
+Hypna clytemnestra (Cramer, ), synonyme Anaea clytemnestra
 Memphis acaudata (Röber, 1916); synonyme Anaea acaudata
-Memphis acidalia (Hübner, [1819]); synonyme  Anaea acidalia Hübner, [1819];
+Memphis acidalia (Hübner, ); synonyme  Anaea acidalia Hübner, ;
 Memphis alberta (Druce, 1876); synonyme Anaea alberta
 Memphis ambrosia (Druce, 1874); synonyme Anaea ambrosia
 Memphis anassa (C. &amp; R. Felder, 1862); synonyme Anaea chorophila Röber, 1916;
 Memphis anna (Staudinger, 1897); synonyme Anaea anna Staudinger, 1897;
-Memphis appias (Hübner, [1825]); synonyme Anaea appias
+Memphis appias (Hübner, ); synonyme Anaea appias
 Memphis arginussa (Geyer, 1832); synonyme Anaea arginussa
-Memphis artacaena (Hewitson, 1869); synonyme Anaea artacaena ; Godman et Salvin, [1884],
+Memphis artacaena (Hewitson, 1869); synonyme Anaea artacaena ; Godman et Salvin, ,
 Memphis aulica (Röber, 1916); synonyme Anaea aulica Röber, 1916;
-Memphis aureola (Bates, 1866); synonyme Anaea aureola ; Godman &amp; Salvin, [1884],
+Memphis aureola (Bates, 1866); synonyme Anaea aureola ; Godman &amp; Salvin, ,
 Memphis beatrix (Druce, 1874); synonyme Anaea beatrix
 Memphis catinka (Druce, 1877); synonyme Anaea catinka
 Memphis cerealia (Druce, 1877); synonyme Anaea discophora Röber, 1924;
 Memphis cluvia (Hopffer, 1874); synonyme Anaea cluvia
-Memphis dia (Godman et Salvin, [1884]); synonyme  Anaea dia Godman et Salvin, [1884];
-Memphis forreri (Godman &amp; Salvin, [1884]); synonyme Anaea forreri
-Memphis glauce (C. et R. Felder, 1862); synonyme Anaea glauce ; Godman et Salvin, [1884],
+Memphis dia (Godman et Salvin, ); synonyme  Anaea dia Godman et Salvin, ;
+Memphis forreri (Godman &amp; Salvin, ); synonyme Anaea forreri
+Memphis glauce (C. et R. Felder, 1862); synonyme Anaea glauce ; Godman et Salvin, ,
 Memphis herbacea (Butler et Druce, 1872); synonyme Anaea herbacea
 Memphis hedemanni (R. Felder, 1869); synonyme Anaea hedemanni
 Memphis hirta (Weymer, 1907); synonyme Anaea hirta Weymer, 1907; et Anaea purpurata Witt, 1972;
-Memphis laertes (Cramer, [1775]); synonyme Anaea laertes
+Memphis laertes (Cramer, ); synonyme Anaea laertes
 Memphis laura (Druce, 1877); synonyme Anaea laura
 Memphis lemnos (Druce, 1877); synonyme Anaea lemnos
-Memphis leonida (Stoll, [1782]); synonyme Anaea leonida
+Memphis leonida (Stoll, ); synonyme Anaea leonida
 Memphis lineata (Salvin, 1869); synonyme  Anaea lineata et Anaea magdalena Röber, 1916;
 Memphis lorna (Druce, 1877); synonyme Anaea lorna
-Memphis moeris (C. &amp; R. Felder, [1867]); synonyme Anaea moeris
+Memphis moeris (C. &amp; R. Felder, ); synonyme Anaea moeris
 Memphis moruus (Fabricius, 1775); synonyme Anaea moruus
 Memphis nenia (Druce, 1877); synonyme Anaea nenia
-Memphis oenomais (Boisduval, 1870); synonyme Anaea oenomais ; Godman et Salvin, [1884],
+Memphis oenomais (Boisduval, 1870); synonyme Anaea oenomais ; Godman et Salvin, ,
 Memphis otrere (Hübner, 1825); synonyme  Anaea otrere Hübner, 1825;
-Memphis pasibula (Doubleday, [1849]); synonyme Anaea aureola ; Godman et Salvin, [1884],
-Memphis perenna (Godman &amp; Salvin, [1884]); synonyme Anaea perenna Godman &amp; Salvin, [1884];
-Memphis philumena (Doubleday, [1849]); synonyme Anaea philumena
-Memphis pithyusa (R. Felder, 1869); synonyme Anaea pithyusa ; Godman et Salvin, [1884]
+Memphis pasibula (Doubleday, ); synonyme Anaea aureola ; Godman et Salvin, ,
+Memphis perenna (Godman &amp; Salvin, ); synonyme Anaea perenna Godman &amp; Salvin, ;
+Memphis philumena (Doubleday, ); synonyme Anaea philumena
+Memphis pithyusa (R. Felder, 1869); synonyme Anaea pithyusa ; Godman et Salvin, 
 Memphis polyxo (Druce, 1874); synonyme Anaea polyxo polyxena Röber, 1924;
 Memphis praxias (Hopffer, 1874); synonyme Anaea praxias
-Memphis proserpina (Salvin, 1869); synonyme Anaea proserpina ; Godman et Salvin, [1884],
+Memphis proserpina (Salvin, 1869); synonyme Anaea proserpina ; Godman et Salvin, ,
 Memphis pseudiphis (Staudinger, 1887); synonyme Anaea pseudiphis Staudinger, 1887;
 Memphis verticordia (Hübner, 1824); synonyme Anaea verticordia Hübner, 1824;
 Memphis xenippa (Hall, 1935); synonyme Anaea xenippa
-Memphis xenocles (Westwood, 1850)Anaea xenocles ; Godman et Salvin, [1884];
+Memphis xenocles (Westwood, 1850)Anaea xenocles ; Godman et Salvin, ;
 Polygrapha cyanea (Godman et Salvin, 1868); synonyme Anaea cyanea.
 Polygrapha suprema (Schaus, 1920); synonyme Anaea suprema Schaus, 1920;
 Polygrapha tyrianthina (Salvin &amp; Godman, 1868); synonyme Anaea tyrianthina ;
 Polygrapha xenocrates (Westwood, 1850); synonyme Anaea xenocrates.
-Zaretis callidryas (R. Felder, 1869), synonyme Anaea opalina Godman et Salvin, [1884];
-Zaretis itys (Cramer, [1777]); synonyme Anaea itys.
+Zaretis callidryas (R. Felder, 1869), synonyme Anaea opalina Godman et Salvin, ;
+Zaretis itys (Cramer, ); synonyme Anaea itys.
 Zaretis syene (Hewitson, 1856); synonyme Anaea syene.</t>
         </is>
       </c>
